--- a/_Out/NFDataCfg/Excel/GuildJob.xlsx
+++ b/_Out/NFDataCfg/Excel/GuildJob.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -853,49 +853,49 @@
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" t="b">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -903,49 +903,49 @@
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10" t="b">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
         <v>0</v>
       </c>
     </row>
@@ -953,49 +953,49 @@
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10" t="b">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1003,49 +1003,49 @@
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10" t="b">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1053,49 +1053,49 @@
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1103,49 +1103,49 @@
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1153,49 +1153,49 @@
       <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>0</v>
       </c>
     </row>
